--- a/biology/Zoologie/Galeodes_karunensis/Galeodes_karunensis.xlsx
+++ b/biology/Zoologie/Galeodes_karunensis/Galeodes_karunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galeodes karunensis est une espèce de solifuges de la famille des Galeodidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Iran[1]. Elle se rencontre vers Dezfoul.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Iran. Elle se rencontre vers Dezfoul.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 42 mm[2].
-Les mâles mesurent de 35 à 40 mm et les femelles de 30 à 42 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 42 mm.
+Les mâles mesurent de 35 à 40 mm et les femelles de 30 à 42 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de karun et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Karoun.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Birula, 1905 : Beiträge zur Kenntnis der Solifugen-Fauna Persiens. Bulletin de l'Académie impériale des sciences de St.-Pétersbourg, sér. 5, vol. 22, p. 247-286 (texte intégral).</t>
         </is>
